--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -157,7 +157,66 @@
     <t xml:space="preserve">Les images ne sont pas adaptées au contenant.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il convient de redimensionner les images</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Il convient de redimensionner les images et de baliser le contenant dans la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">version mobile 768px </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">- ligne 776 sous VSC : indiquer une width au bloc des images du portfolio, et des margin pour les centrer,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- ligne 850 sous VSC : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">indiquer des width à 100 % au bloc des images mises en background.
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -321,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,7 +390,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -339,7 +398,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -351,19 +410,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -371,17 +430,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,7 +446,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -402,20 +457,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -431,15 +482,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -451,15 +498,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -541,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2890625" defaultRowHeight="29.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -707,10 +746,10 @@
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -738,66 +777,66 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="97.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="97.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" s="25" customFormat="true" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" s="23" customFormat="true" ht="220.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="56.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="30" t="n">
+      <c r="E12" s="27" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1823,817 +1862,679 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="31"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="31"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="31"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="31"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="31"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="31"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="31"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="31"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="31"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="31"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="31"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="31"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="31"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="31"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="31"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="31"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="31"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="31"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="31"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="31"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="31"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="31"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="31"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="31"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="31"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="31"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="31"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="31"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="31"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="31"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="31"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="31"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="31"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="28"/>
     </row>
     <row r="64" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="31"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="31"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="31"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="28"/>
     </row>
     <row r="67" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="31"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="31"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="31"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="28"/>
     </row>
     <row r="69" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="31"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="28"/>
     </row>
     <row r="70" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="31"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="28"/>
     </row>
     <row r="71" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="31"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="31"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="28"/>
     </row>
     <row r="72" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="31"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="31"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="28"/>
     </row>
     <row r="73" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="31"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="28"/>
     </row>
     <row r="74" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="31"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="28"/>
     </row>
     <row r="75" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="31"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="31"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="28"/>
     </row>
     <row r="76" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="31"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="31"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="28"/>
     </row>
     <row r="77" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="31"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="28"/>
     </row>
     <row r="78" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="31"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="31"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="28"/>
     </row>
     <row r="79" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="31"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="28"/>
     </row>
     <row r="80" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="31"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="31"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="28"/>
     </row>
     <row r="81" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="31"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="31"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="28"/>
     </row>
     <row r="82" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="31"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="31"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="28"/>
     </row>
     <row r="83" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="31"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="31"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="28"/>
     </row>
     <row r="84" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="31"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="31"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="28"/>
     </row>
     <row r="85" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="31"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="31"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="28"/>
     </row>
     <row r="86" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="31"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="31"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="28"/>
     </row>
     <row r="87" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="31"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="31"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="28"/>
     </row>
     <row r="88" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="31"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="31"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="28"/>
     </row>
     <row r="89" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="31"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="31"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="28"/>
     </row>
     <row r="90" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="31"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="31"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="28"/>
     </row>
     <row r="91" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="31"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="31"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="28"/>
     </row>
     <row r="92" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="31"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="31"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="28"/>
     </row>
     <row r="93" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="31"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="31"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="28"/>
     </row>
     <row r="94" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="31"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="31"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="28"/>
     </row>
     <row r="95" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="31"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="31"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="28"/>
     </row>
     <row r="96" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="31"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="31"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="28"/>
     </row>
     <row r="97" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="31"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="31"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="28"/>
     </row>
     <row r="98" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="31"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="31"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="28"/>
     </row>
     <row r="99" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="31"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="31"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="28"/>
     </row>
     <row r="100" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="31"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="31"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="28"/>
     </row>
     <row r="101" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="31"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="31"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="28"/>
     </row>
     <row r="102" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="31"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="31"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="28"/>
     </row>
     <row r="103" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="31"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="31"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="28"/>
     </row>
     <row r="104" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="31"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="31"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="28"/>
     </row>
     <row r="105" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="31"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="31"/>
-    </row>
-    <row r="106" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="33"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="33"/>
-    </row>
-    <row r="107" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="33"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="33"/>
-    </row>
-    <row r="108" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="33"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="33"/>
-    </row>
-    <row r="109" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="33"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="33"/>
-    </row>
-    <row r="110" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="33"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="33"/>
-    </row>
-    <row r="111" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="33"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="33"/>
-    </row>
-    <row r="112" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="33"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="33"/>
-    </row>
-    <row r="113" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="33"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="33"/>
-    </row>
-    <row r="114" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="33"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="33"/>
-    </row>
-    <row r="115" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="33"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="33"/>
-    </row>
-    <row r="116" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="33"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="33"/>
-    </row>
-    <row r="117" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="33"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="33"/>
-    </row>
-    <row r="118" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="33"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="34"/>
-      <c r="E118" s="33"/>
-    </row>
-    <row r="119" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="33"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="33"/>
-    </row>
-    <row r="120" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="33"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="33"/>
-    </row>
-    <row r="121" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="33"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="33"/>
-    </row>
-    <row r="122" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="33"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="33"/>
-    </row>
-    <row r="123" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="33"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="33"/>
-    </row>
-    <row r="124" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="33"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="33"/>
-    </row>
-    <row r="125" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="33"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="33"/>
-    </row>
-    <row r="126" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="33"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="33"/>
-    </row>
-    <row r="127" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="33"/>
-      <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="33"/>
-    </row>
-    <row r="128" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="33"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="33"/>
-    </row>
+      <c r="A105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="28"/>
+    </row>
+    <row r="106" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
